--- a/modeling/results/final_results_f1.xlsx
+++ b/modeling/results/final_results_f1.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="C2">
-        <v>0.655</v>
+        <v>0.66</v>
       </c>
       <c r="D2">
-        <v>0.706</v>
+        <v>0.708</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
+        <v>0.734</v>
       </c>
       <c r="F2">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.595</v>
+        <v>0.541</v>
       </c>
       <c r="C3">
-        <v>0.239</v>
+        <v>0.248</v>
       </c>
       <c r="D3">
-        <v>0.576</v>
+        <v>0.544</v>
       </c>
       <c r="E3">
-        <v>0.476</v>
+        <v>0.545</v>
       </c>
       <c r="F3">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6879999999999999</v>
+        <v>0.741</v>
       </c>
       <c r="C4">
-        <v>0.6909999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="D4">
-        <v>0.699</v>
+        <v>0.705</v>
       </c>
       <c r="E4">
-        <v>0.719</v>
+        <v>0.724</v>
       </c>
       <c r="F4">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.72</v>
+        <v>0.673</v>
       </c>
       <c r="C5">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="D5">
-        <v>0.587</v>
+        <v>0.608</v>
       </c>
       <c r="E5">
-        <v>0.648</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="C6">
-        <v>0.236</v>
+        <v>0.231</v>
       </c>
       <c r="D6">
-        <v>0.535</v>
+        <v>0.591</v>
       </c>
       <c r="E6">
-        <v>0.627</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F6">
         <v>0.428</v>

--- a/modeling/results/final_results_f1.xlsx
+++ b/modeling/results/final_results_f1.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.694</v>
+        <v>0.64</v>
       </c>
       <c r="C2">
-        <v>0.66</v>
+        <v>0.639</v>
       </c>
       <c r="D2">
-        <v>0.708</v>
+        <v>0.703</v>
       </c>
       <c r="E2">
-        <v>0.734</v>
+        <v>0.697</v>
       </c>
       <c r="F2">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.541</v>
+        <v>0.533</v>
       </c>
       <c r="C3">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="D3">
-        <v>0.544</v>
+        <v>0.545</v>
       </c>
       <c r="E3">
-        <v>0.545</v>
+        <v>0.442</v>
       </c>
       <c r="F3">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.741</v>
+        <v>0.696</v>
       </c>
       <c r="C4">
-        <v>0.707</v>
+        <v>0.72</v>
       </c>
       <c r="D4">
-        <v>0.705</v>
+        <v>0.68</v>
       </c>
       <c r="E4">
-        <v>0.724</v>
+        <v>0.715</v>
       </c>
       <c r="F4">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,16 +495,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.673</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C5">
-        <v>0.588</v>
+        <v>0.594</v>
       </c>
       <c r="D5">
-        <v>0.608</v>
+        <v>0.595</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="F5">
         <v>0.425</v>
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.63</v>
+        <v>0.609</v>
       </c>
       <c r="C6">
-        <v>0.231</v>
+        <v>0.269</v>
       </c>
       <c r="D6">
-        <v>0.591</v>
+        <v>0.552</v>
       </c>
       <c r="E6">
-        <v>0.6830000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F6">
         <v>0.428</v>

--- a/modeling/results/final_results_f1.xlsx
+++ b/modeling/results/final_results_f1.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.64</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C2">
-        <v>0.639</v>
+        <v>0.601</v>
       </c>
       <c r="D2">
-        <v>0.703</v>
+        <v>0.719</v>
       </c>
       <c r="E2">
-        <v>0.697</v>
+        <v>0.644</v>
       </c>
       <c r="F2">
-        <v>0.427</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.533</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C3">
-        <v>0.245</v>
+        <v>0.256</v>
       </c>
       <c r="D3">
-        <v>0.545</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E3">
-        <v>0.442</v>
+        <v>0.455</v>
       </c>
       <c r="F3">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,16 +475,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.696</v>
+        <v>0.63</v>
       </c>
       <c r="C4">
-        <v>0.72</v>
+        <v>0.527</v>
       </c>
       <c r="D4">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="E4">
-        <v>0.715</v>
+        <v>0.618</v>
       </c>
       <c r="F4">
         <v>0.428</v>
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6830000000000001</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C5">
-        <v>0.594</v>
+        <v>0.591</v>
       </c>
       <c r="D5">
-        <v>0.595</v>
+        <v>0.581</v>
       </c>
       <c r="E5">
-        <v>0.51</v>
+        <v>0.669</v>
       </c>
       <c r="F5">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.609</v>
+        <v>0.677</v>
       </c>
       <c r="C6">
-        <v>0.269</v>
+        <v>0.209</v>
       </c>
       <c r="D6">
-        <v>0.552</v>
+        <v>0.573</v>
       </c>
       <c r="E6">
-        <v>0.5629999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="F6">
         <v>0.428</v>

--- a/modeling/results/final_results_f1.xlsx
+++ b/modeling/results/final_results_f1.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.6860000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C2">
-        <v>0.601</v>
+        <v>0.648</v>
       </c>
       <c r="D2">
-        <v>0.719</v>
+        <v>0.73</v>
       </c>
       <c r="E2">
-        <v>0.644</v>
+        <v>0.696</v>
       </c>
       <c r="F2">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5659999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C3">
-        <v>0.256</v>
+        <v>0.246</v>
       </c>
       <c r="D3">
-        <v>0.5629999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="E3">
-        <v>0.455</v>
+        <v>0.543</v>
       </c>
       <c r="F3">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.63</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C4">
-        <v>0.527</v>
+        <v>0.663</v>
       </c>
       <c r="D4">
-        <v>0.681</v>
+        <v>0.705</v>
       </c>
       <c r="E4">
-        <v>0.618</v>
+        <v>0.672</v>
       </c>
       <c r="F4">
-        <v>0.428</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6870000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="C5">
-        <v>0.591</v>
+        <v>0.587</v>
       </c>
       <c r="D5">
-        <v>0.581</v>
+        <v>0.617</v>
       </c>
       <c r="E5">
-        <v>0.669</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F5">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.677</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C6">
-        <v>0.209</v>
+        <v>0.221</v>
       </c>
       <c r="D6">
-        <v>0.573</v>
+        <v>0.607</v>
       </c>
       <c r="E6">
-        <v>0.574</v>
+        <v>0.609</v>
       </c>
       <c r="F6">
         <v>0.428</v>

--- a/modeling/results/final_results_f1.xlsx
+++ b/modeling/results/final_results_f1.xlsx
@@ -435,19 +435,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.6909999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C2">
-        <v>0.648</v>
+        <v>0.646</v>
       </c>
       <c r="D2">
-        <v>0.73</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E2">
-        <v>0.696</v>
+        <v>0.715</v>
       </c>
       <c r="F2">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5669999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="C3">
-        <v>0.246</v>
+        <v>0.239</v>
       </c>
       <c r="D3">
-        <v>0.545</v>
+        <v>0.587</v>
       </c>
       <c r="E3">
-        <v>0.543</v>
+        <v>0.574</v>
       </c>
       <c r="F3">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,19 +475,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6919999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="C4">
-        <v>0.663</v>
+        <v>0.666</v>
       </c>
       <c r="D4">
-        <v>0.705</v>
+        <v>0.71</v>
       </c>
       <c r="E4">
-        <v>0.672</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F4">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,19 +495,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.635</v>
+        <v>0.729</v>
       </c>
       <c r="C5">
-        <v>0.587</v>
+        <v>0.583</v>
       </c>
       <c r="D5">
-        <v>0.617</v>
+        <v>0.61</v>
       </c>
       <c r="E5">
-        <v>0.6889999999999999</v>
+        <v>0.677</v>
       </c>
       <c r="F5">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,19 +515,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6840000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C6">
-        <v>0.221</v>
+        <v>0.229</v>
       </c>
       <c r="D6">
-        <v>0.607</v>
+        <v>0.602</v>
       </c>
       <c r="E6">
-        <v>0.609</v>
+        <v>0.674</v>
       </c>
       <c r="F6">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
     </row>
   </sheetData>
